--- a/biology/Écologie/Liste_des_espèces_exotiques_envahissantes_préoccupantes_pour_l'Union_européenne/Liste_des_espèces_exotiques_envahissantes_préoccupantes_pour_l'Union_européenne.xlsx
+++ b/biology/Écologie/Liste_des_espèces_exotiques_envahissantes_préoccupantes_pour_l'Union_européenne/Liste_des_espèces_exotiques_envahissantes_préoccupantes_pour_l'Union_européenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_exotiques_envahissantes_pr%C3%A9occupantes_pour_l%27Union_europ%C3%A9enne</t>
+          <t>Liste_des_espèces_exotiques_envahissantes_préoccupantes_pour_l'Union_européenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, à la suite du règlement de l'UE 1143/2014[1] sur les espèces exotiques envahissantes (EEE), la Commission européenne a publié une première liste de 37 EEE préoccupantes pour l'Union[2]. La liste a été mise à jour pour la première fois en 2017[3] et comprenait 49 espèces. Elle a été mise à jour une seconde fois en 2019[4], avec un total de 66 espèces. Depuis la troisième mise à jour en 2022[5], un total de 88 espèces sont répertoriées comme EEE préoccupantes pour l'Union.
-Les espèces figurant sur la liste sont soumises à des restrictions en matière de détention, d'importation, de vente, d'élevage et de culture. Les États membres de l'Union européenne doivent prendre des mesures pour arrêter leur propagation, mettre en place un suivi et, de préférence, éradiquer ces espèces. Même si elles sont déjà répandues dans le pays, ils doivent gérer les espèces afin d'éviter toute nouvelle propagation[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, à la suite du règlement de l'UE 1143/2014 sur les espèces exotiques envahissantes (EEE), la Commission européenne a publié une première liste de 37 EEE préoccupantes pour l'Union. La liste a été mise à jour pour la première fois en 2017 et comprenait 49 espèces. Elle a été mise à jour une seconde fois en 2019, avec un total de 66 espèces. Depuis la troisième mise à jour en 2022, un total de 88 espèces sont répertoriées comme EEE préoccupantes pour l'Union.
+Les espèces figurant sur la liste sont soumises à des restrictions en matière de détention, d'importation, de vente, d'élevage et de culture. Les États membres de l'Union européenne doivent prendre des mesures pour arrêter leur propagation, mettre en place un suivi et, de préférence, éradiquer ces espèces. Même si elles sont déjà répandues dans le pays, ils doivent gérer les espèces afin d'éviter toute nouvelle propagation.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_exotiques_envahissantes_pr%C3%A9occupantes_pour_l%27Union_europ%C3%A9enne</t>
+          <t>Liste_des_espèces_exotiques_envahissantes_préoccupantes_pour_l'Union_européenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_exotiques_envahissantes_pr%C3%A9occupantes_pour_l%27Union_europ%C3%A9enne</t>
+          <t>Liste_des_espèces_exotiques_envahissantes_préoccupantes_pour_l'Union_européenne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Ressources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Brochure de l'UE présentant les 49 espèces de la liste (version 2017 (PDF) (en)
 Rapport JRC sur la distribution des 37 espèces de la première liste (en)</t>
